--- a/0_Fundamentals/Embedded_Qs_and_Data/0_Embedded_Qs.xlsx
+++ b/0_Fundamentals/Embedded_Qs_and_Data/0_Embedded_Qs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\Notebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\ENGR_321_Notebooks\0_Fundamentals\Embedded_Qs_and_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5C508D-037C-4537-9849-8AF0302BCF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21C1C83-B5D7-4BBB-A527-67F8FB63964C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1500" windowWidth="23250" windowHeight="13215" activeTab="15" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
+    <workbookView xWindow="12885" yWindow="2265" windowWidth="15945" windowHeight="13215" activeTab="2" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -51,10 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="63">
-  <si>
-    <t>What type of data object is the file location on the right side of line 28 ('https:….)?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="78">
   <si>
     <t>Correct</t>
   </si>
@@ -62,27 +59,12 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>list</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Yep!  The quotation marks indicate that this is a string.  A string is a series of characters that has no numerical value (that is, it is what we might normally just call a 'word'). </t>
-  </si>
-  <si>
-    <t>dictionary</t>
-  </si>
-  <si>
     <t>Terms</t>
   </si>
   <si>
@@ -240,6 +222,69 @@
   </si>
   <si>
     <t>Depends on your gender identity</t>
+  </si>
+  <si>
+    <t>Temperature is an indirect indication of what?</t>
+  </si>
+  <si>
+    <t>The kinetic energy of the molecules in the material</t>
+  </si>
+  <si>
+    <t>The thermal energy of the molecules in the material</t>
+  </si>
+  <si>
+    <t>The potential energy of the molecules in the material</t>
+  </si>
+  <si>
+    <t>The chemical energy of the molecules in the material</t>
+  </si>
+  <si>
+    <t>Yep!  Absolute temperature is proportional to the average KE of the molecules.</t>
+  </si>
+  <si>
+    <t>Nope!  You'd think this would be the case, but thermal energy also includes latent thermal energy, which is not indicated by temperature.</t>
+  </si>
+  <si>
+    <t>When a high energy molecule collides with a low energy molecule, what happens *on average*?</t>
+  </si>
+  <si>
+    <t>Energy is transferred from the high to low energy molecule</t>
+  </si>
+  <si>
+    <t>Energy is transferred from the low to high energy molecule</t>
+  </si>
+  <si>
+    <t>Energy can be transferred in either direction</t>
+  </si>
+  <si>
+    <t>On average, no energy is transferred</t>
+  </si>
+  <si>
+    <t>Nope.  Think of this like a pool ball: when a fast ball hits a slow moving one, does the slow moving ball tend to speed up?</t>
+  </si>
+  <si>
+    <t>Yep!  This process is at the heart of conduction, which moves thermal energy from hot material to colder material.</t>
+  </si>
+  <si>
+    <t>Two objects that have the same temperature must be at equilibrium</t>
+  </si>
+  <si>
+    <t>Which of the following must be true, according to the Zeroth law?  Mark each with a 'T' or 'F'.</t>
+  </si>
+  <si>
+    <t>There will be no heat transfer between two objects at the same temperature</t>
+  </si>
+  <si>
+    <t>Temperature is a dependable measure of the average molecular kinetic energy of a material</t>
+  </si>
+  <si>
+    <t>This is true: the Zeroth law stipulates that equal temperature is in indication of equilibrium</t>
+  </si>
+  <si>
+    <t>This is true: a lack of heat transfer between materials in contact is definition of equilibrium, and equal temperatures indicate equilibrium.</t>
+  </si>
+  <si>
+    <t>This is true: this is why the Zeroth law is more fundamental than the First and Second laws.  We need to establish that temperature represents an actual physical condition in order to use it to compare different materials.</t>
   </si>
 </sst>
 </file>
@@ -621,7 +666,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,52 +677,54 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -705,37 +752,37 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -763,37 +810,37 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -820,57 +867,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -896,68 +943,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -985,13 +1032,13 @@
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1013,7 +1060,7 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1023,7 +1070,7 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1033,7 +1080,7 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1060,65 +1107,65 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -1126,7 +1173,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -1134,7 +1181,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -1147,7 +1194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFD4C29-31D0-4FC0-9BDE-CC6D58CE522F}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1161,57 +1208,57 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1224,7 +1271,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1235,40 +1282,54 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -1281,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C22B9E-BAFD-4665-B848-E4D4BBDD2F16}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,41 +1354,53 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
   </sheetData>
@@ -1354,37 +1427,37 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -1412,37 +1485,37 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -1470,37 +1543,37 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -1528,37 +1601,37 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -1586,37 +1659,37 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -1644,37 +1717,37 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2"/>
     </row>

--- a/0_Fundamentals/Embedded_Qs_and_Data/0_Embedded_Qs.xlsx
+++ b/0_Fundamentals/Embedded_Qs_and_Data/0_Embedded_Qs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\ENGR_321_Notebooks\0_Fundamentals\Embedded_Qs_and_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21C1C83-B5D7-4BBB-A527-67F8FB63964C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C928171-7A76-471E-A853-129405B65B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12885" yWindow="2265" windowWidth="15945" windowHeight="13215" activeTab="2" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
+    <workbookView xWindow="12855" yWindow="2265" windowWidth="15945" windowHeight="13215" activeTab="3" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -1342,8 +1342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C22B9E-BAFD-4665-B848-E4D4BBDD2F16}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B108BD-5895-409A-8E08-9DFC6590E1E9}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,8 +1424,10 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1433,32 +1435,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
   </sheetData>

--- a/0_Fundamentals/Embedded_Qs_and_Data/0_Embedded_Qs.xlsx
+++ b/0_Fundamentals/Embedded_Qs_and_Data/0_Embedded_Qs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\ENGR_321_Notebooks\0_Fundamentals\Embedded_Qs_and_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C928171-7A76-471E-A853-129405B65B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B387687B-D00D-47F5-8E2C-13AF97935A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12855" yWindow="2265" windowWidth="15945" windowHeight="13215" activeTab="3" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
   <si>
     <t>Correct</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>This is true: this is why the Zeroth law is more fundamental than the First and Second laws.  We need to establish that temperature represents an actual physical condition in order to use it to compare different materials.</t>
+  </si>
+  <si>
+    <t>True or False:  Two objects that have the same temperature must be at equilibrium</t>
   </si>
 </sst>
 </file>
@@ -1413,7 +1416,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1426,7 +1429,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1436,9 +1439,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>71</v>
-      </c>
+      <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>

--- a/0_Fundamentals/Embedded_Qs_and_Data/0_Embedded_Qs.xlsx
+++ b/0_Fundamentals/Embedded_Qs_and_Data/0_Embedded_Qs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\ENGR_321_Notebooks\0_Fundamentals\Embedded_Qs_and_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B387687B-D00D-47F5-8E2C-13AF97935A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8EA8D0-1B09-46DE-A99B-013A6504DBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12855" yWindow="2265" windowWidth="15945" windowHeight="13215" activeTab="3" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
   </bookViews>
@@ -1416,7 +1416,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1427,10 +1427,8 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>78</v>
-      </c>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1439,7 +1437,9 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>

--- a/0_Fundamentals/Embedded_Qs_and_Data/0_Embedded_Qs.xlsx
+++ b/0_Fundamentals/Embedded_Qs_and_Data/0_Embedded_Qs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\ENGR_321_Notebooks\0_Fundamentals\Embedded_Qs_and_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8EA8D0-1B09-46DE-A99B-013A6504DBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DC2D7B-1ADB-4431-BCA9-8349626872BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12855" yWindow="2265" windowWidth="15945" windowHeight="13215" activeTab="3" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="81">
   <si>
     <t>Correct</t>
   </si>
@@ -288,6 +288,12 @@
   </si>
   <si>
     <t>True or False:  Two objects that have the same temperature must be at equilibrium</t>
+  </si>
+  <si>
+    <t>the Zeroth law stipulates that equal temperature is in indication of equilibrium</t>
+  </si>
+  <si>
+    <t>Comment (start with small letter)</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1422,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1433,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1444,7 +1450,7 @@
         <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/0_Fundamentals/Embedded_Qs_and_Data/0_Embedded_Qs.xlsx
+++ b/0_Fundamentals/Embedded_Qs_and_Data/0_Embedded_Qs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\ENGR_321_Notebooks\0_Fundamentals\Embedded_Qs_and_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DC2D7B-1ADB-4431-BCA9-8349626872BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F781EDBE-9E9D-452B-AF33-0DBE4AE1ED5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12855" yWindow="2265" windowWidth="15945" windowHeight="13215" activeTab="3" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
+    <workbookView xWindow="12855" yWindow="2265" windowWidth="15945" windowHeight="13215" activeTab="2" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
   <si>
     <t>Correct</t>
   </si>
@@ -260,24 +260,9 @@
     <t>On average, no energy is transferred</t>
   </si>
   <si>
-    <t>Nope.  Think of this like a pool ball: when a fast ball hits a slow moving one, does the slow moving ball tend to speed up?</t>
-  </si>
-  <si>
     <t>Yep!  This process is at the heart of conduction, which moves thermal energy from hot material to colder material.</t>
   </si>
   <si>
-    <t>Two objects that have the same temperature must be at equilibrium</t>
-  </si>
-  <si>
-    <t>Which of the following must be true, according to the Zeroth law?  Mark each with a 'T' or 'F'.</t>
-  </si>
-  <si>
-    <t>There will be no heat transfer between two objects at the same temperature</t>
-  </si>
-  <si>
-    <t>Temperature is a dependable measure of the average molecular kinetic energy of a material</t>
-  </si>
-  <si>
     <t>This is true: the Zeroth law stipulates that equal temperature is in indication of equilibrium</t>
   </si>
   <si>
@@ -294,6 +279,18 @@
   </si>
   <si>
     <t>Comment (start with small letter)</t>
+  </si>
+  <si>
+    <t>Nope.  Think of this like a pool ball: when a fast ball hits a slow moving one, the slow ball tends to speed up (on average!).</t>
+  </si>
+  <si>
+    <t>True or False: Temperature is a dependable measure of the average molecular kinetic energy of a material</t>
+  </si>
+  <si>
+    <t>True or False: There will be no heat transfer between two objects at the same temperature.</t>
+  </si>
+  <si>
+    <t>True or False: two objects that have the same temperature must be at equilibrium</t>
   </si>
 </sst>
 </file>
@@ -675,7 +672,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +699,7 @@
         <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>62</v>
@@ -724,7 +721,7 @@
         <v>60</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -1280,7 +1277,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1310,7 +1307,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
@@ -1321,7 +1318,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1351,78 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C22B9E-BAFD-4665-B848-E4D4BBDD2F16}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B108BD-5895-409A-8E08-9DFC6590E1E9}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,18 +1366,18 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1473,12 +1400,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7D717C-976A-40C2-8F20-6D7B2F5C7AAC}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B108BD-5895-409A-8E08-9DFC6590E1E9}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,35 +1422,33 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
   </sheetData>
@@ -1531,12 +1456,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247BEDE9-0E39-4CD0-BDE7-8CAC98E2D3B7}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7D717C-976A-40C2-8F20-6D7B2F5C7AAC}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,35 +1478,89 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>77</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247BEDE9-0E39-4CD0-BDE7-8CAC98E2D3B7}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
   </sheetData>

--- a/0_Fundamentals/Embedded_Qs_and_Data/0_Embedded_Qs.xlsx
+++ b/0_Fundamentals/Embedded_Qs_and_Data/0_Embedded_Qs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\ENGR_321_Notebooks\0_Fundamentals\Embedded_Qs_and_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F781EDBE-9E9D-452B-AF33-0DBE4AE1ED5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E086B6E9-FE5D-4186-B80C-27A5BECE1014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12855" yWindow="2265" windowWidth="15945" windowHeight="13215" activeTab="2" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
+    <workbookView xWindow="12855" yWindow="2265" windowWidth="15945" windowHeight="13215" firstSheet="3" activeTab="6" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="96">
   <si>
     <t>Correct</t>
   </si>
@@ -272,12 +272,6 @@
     <t>This is true: this is why the Zeroth law is more fundamental than the First and Second laws.  We need to establish that temperature represents an actual physical condition in order to use it to compare different materials.</t>
   </si>
   <si>
-    <t>True or False:  Two objects that have the same temperature must be at equilibrium</t>
-  </si>
-  <si>
-    <t>the Zeroth law stipulates that equal temperature is in indication of equilibrium</t>
-  </si>
-  <si>
     <t>Comment (start with small letter)</t>
   </si>
   <si>
@@ -291,6 +285,60 @@
   </si>
   <si>
     <t>True or False: two objects that have the same temperature must be at equilibrium</t>
+  </si>
+  <si>
+    <t>Which would be a good informal defintion of specific heat 'C', considering its units, J/kgK?</t>
+  </si>
+  <si>
+    <t>The amount of thermal energy that a material has</t>
+  </si>
+  <si>
+    <t>The amount of thermal energy that an object has</t>
+  </si>
+  <si>
+    <t>The amount of thermal energy required to change the temperature of a material</t>
+  </si>
+  <si>
+    <t>The amount of thermal energy required to change the temperature of an object</t>
+  </si>
+  <si>
+    <t>Specific heat is a material component, and in metric units it indicates the Joules required to change a kilogram of that material by one degree C (or K).</t>
+  </si>
+  <si>
+    <t>This would be indicated by mC, which is sometimes called the "thermal mass" of an object.</t>
+  </si>
+  <si>
+    <t>Heat rate</t>
+  </si>
+  <si>
+    <t>Heat flux</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>An amount of thermal energy exchanged as a whole (J)</t>
+  </si>
+  <si>
+    <t>A rate term that indicates the rate of thermal energy moving through a given surface area (J/sm^2)</t>
+  </si>
+  <si>
+    <t>An indicator of the amount of the kinetic energy of a material's molecules</t>
+  </si>
+  <si>
+    <t>A rate term for thermal energy: the rate of heat transfer per unit time (J/s)</t>
+  </si>
+  <si>
+    <t>This is indicated by a q" (the small letter indicates a rate, and the two prime markers indicate a two dimensional surface)</t>
+  </si>
+  <si>
+    <t>This is indicated by Q (the capital letter indicates that it is an amount, not a rate)</t>
+  </si>
+  <si>
+    <t>This is indicated by the small letter q.</t>
   </si>
 </sst>
 </file>
@@ -344,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -355,6 +403,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1099,7 +1150,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,7 +1328,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1348,7 +1399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C22B9E-BAFD-4665-B848-E4D4BBDD2F16}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -1371,7 +1422,7 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>49</v>
@@ -1422,12 +1473,12 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>49</v>
@@ -1478,12 +1529,12 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>49</v>
@@ -1516,9 +1567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247BEDE9-0E39-4CD0-BDE7-8CAC98E2D3B7}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1528,40 +1577,56 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1570,56 +1635,94 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C64CEB-3B62-411B-AD41-4E5DB390DAC5}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="27.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="6" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/0_Fundamentals/Embedded_Qs_and_Data/0_Embedded_Qs.xlsx
+++ b/0_Fundamentals/Embedded_Qs_and_Data/0_Embedded_Qs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\ENGR_321_Notebooks\0_Fundamentals\Embedded_Qs_and_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\Notebooks\0_Fundamentals\Embedded_Qs_and_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E086B6E9-FE5D-4186-B80C-27A5BECE1014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3C35A2-794F-4D65-8A84-6DE105AF1C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12855" yWindow="2265" windowWidth="15945" windowHeight="13215" firstSheet="3" activeTab="6" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
+    <workbookView xWindow="2325" yWindow="2085" windowWidth="15945" windowHeight="13215" firstSheet="3" activeTab="11" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,8 @@
     <sheet name="8_" sheetId="3" r:id="rId9"/>
     <sheet name="9_" sheetId="11" r:id="rId10"/>
     <sheet name="10_" sheetId="12" r:id="rId11"/>
-    <sheet name="MultC" sheetId="13" r:id="rId12"/>
-    <sheet name="MultAns" sheetId="14" r:id="rId13"/>
+    <sheet name="11_" sheetId="14" r:id="rId12"/>
+    <sheet name="MultC" sheetId="13" r:id="rId13"/>
     <sheet name="Quant" sheetId="15" r:id="rId14"/>
     <sheet name="Matching" sheetId="16" r:id="rId15"/>
     <sheet name="True_False" sheetId="17" r:id="rId16"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
   <si>
     <t>Correct</t>
   </si>
@@ -140,39 +140,15 @@
     <t>Did you add correctly, shithead?</t>
   </si>
   <si>
-    <t>What is the best kind of bear?</t>
-  </si>
-  <si>
-    <t>Grizzly</t>
-  </si>
-  <si>
-    <t>Obviously it's not the grizzly.</t>
-  </si>
-  <si>
-    <t>Polar</t>
-  </si>
-  <si>
     <t>You're brilliant!</t>
   </si>
   <si>
-    <t>Brown</t>
-  </si>
-  <si>
     <t>You're stupid.</t>
   </si>
   <si>
     <t>Black</t>
   </si>
   <si>
-    <t>Battlestar Galactica.</t>
-  </si>
-  <si>
-    <t>Koala</t>
-  </si>
-  <si>
-    <t>It's not even a bear, dumbshit.</t>
-  </si>
-  <si>
     <t>What is the color of the car?</t>
   </si>
   <si>
@@ -339,6 +315,72 @@
   </si>
   <si>
     <t>This is indicated by the small letter q.</t>
+  </si>
+  <si>
+    <t>What does a dot above a variable mean?</t>
+  </si>
+  <si>
+    <t>It indicates that the variable is defined in metric units</t>
+  </si>
+  <si>
+    <t>It indicates that the variable is a "specific" value: that is, "per unit mass"</t>
+  </si>
+  <si>
+    <t>It indicates that the variable is a rate: that is, "per unit time"</t>
+  </si>
+  <si>
+    <t>It indicates that the variable is part of the First Law</t>
+  </si>
+  <si>
+    <t>Nope!  But that is why specific heat "C" is has the word "specific" in it: heat per unit mass.  Another example: "specific volume" is another way of describing density: volume per unit mass.</t>
+  </si>
+  <si>
+    <t>Yep!  If it's got dots, it’s a rate equation.</t>
+  </si>
+  <si>
+    <t>True or False: A control volume always has the same mass.</t>
+  </si>
+  <si>
+    <t>Some control volumes will have a constant mass, but others might have mass cross the boundary.  In that case, we'd need to consider the thermal energy of the entering/ exiting mass.</t>
+  </si>
+  <si>
+    <t>True or False: A control surface cannot store energy.</t>
+  </si>
+  <si>
+    <t>True or False: Any energy that enters a control surface must immediately leave the control surface.</t>
+  </si>
+  <si>
+    <t>This is true: because it's volume is infinitesimally small, there is no (significant) mass in a control surface.  With no mass, there can be no energy storage.</t>
+  </si>
+  <si>
+    <t>This is true: the control surface cannot store any energy, so any energy that leaves will immediately leave.  So placing a control surface at a natural boundary in a system (say, between two different materials) is a useful analytical tool.</t>
+  </si>
+  <si>
+    <t>Which of the following might be redefined as E_gen?</t>
+  </si>
+  <si>
+    <t>The energy released by a gas that is changing phase into a liquid</t>
+  </si>
+  <si>
+    <t>The energy released by the radioactive decay of a material</t>
+  </si>
+  <si>
+    <t>The energy released by an exothermic chemical reaction</t>
+  </si>
+  <si>
+    <t>The energy released by a wire heating up under a current load</t>
+  </si>
+  <si>
+    <t>This is not E_gen: latent heat energy is considered thermal energy, and so much be accounted for in a thermal/ mechanical calculation.</t>
+  </si>
+  <si>
+    <t>Yes, nuclear energy can be redefined as E_gen.</t>
+  </si>
+  <si>
+    <t>Yes, electrical energy can be redefined as E_gen.</t>
+  </si>
+  <si>
+    <t>Yes, chemical energy can be redefined as E_gen.</t>
   </si>
 </sst>
 </file>
@@ -736,7 +778,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -747,29 +789,29 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -778,7 +820,7 @@
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -795,7 +837,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -815,32 +857,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
   </sheetData>
@@ -853,7 +893,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -873,32 +913,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
   </sheetData>
@@ -907,6 +945,87 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C0DA99-12E2-47AF-BE37-6FE22B086204}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F6744C-AB84-46A6-B154-ADCDC73F4916}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -924,7 +1043,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -935,133 +1054,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C0DA99-12E2-47AF-BE37-6FE22B086204}">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1265,7 +1297,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1276,46 +1308,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1341,7 +1373,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1352,29 +1384,29 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -1383,7 +1415,7 @@
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
@@ -1422,13 +1454,13 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1473,18 +1505,18 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1529,18 +1561,18 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1579,7 +1611,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1590,7 +1622,7 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -1599,7 +1631,7 @@
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -1608,24 +1640,24 @@
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1637,7 +1669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C64CEB-3B62-411B-AD41-4E5DB390DAC5}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -1664,41 +1696,41 @@
     </row>
     <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -1706,10 +1738,10 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1734,7 +1766,79 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5443ECE8-05FA-4447-AF71-5E40FEC6A164}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1754,90 +1858,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5443ECE8-05FA-4447-AF71-5E40FEC6A164}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
   </sheetData>

--- a/0_Fundamentals/Embedded_Qs_and_Data/0_Embedded_Qs.xlsx
+++ b/0_Fundamentals/Embedded_Qs_and_Data/0_Embedded_Qs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\Notebooks\0_Fundamentals\Embedded_Qs_and_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3C35A2-794F-4D65-8A84-6DE105AF1C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60E94E1-4100-4F66-A2E0-2522A3288604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2085" windowWidth="15945" windowHeight="13215" firstSheet="3" activeTab="11" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
+    <workbookView xWindow="9975" yWindow="2370" windowWidth="15945" windowHeight="13215" firstSheet="4" activeTab="12" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,11 @@
     <sheet name="9_" sheetId="11" r:id="rId10"/>
     <sheet name="10_" sheetId="12" r:id="rId11"/>
     <sheet name="11_" sheetId="14" r:id="rId12"/>
-    <sheet name="MultC" sheetId="13" r:id="rId13"/>
-    <sheet name="Quant" sheetId="15" r:id="rId14"/>
-    <sheet name="Matching" sheetId="16" r:id="rId15"/>
-    <sheet name="True_False" sheetId="17" r:id="rId16"/>
+    <sheet name="12_" sheetId="18" r:id="rId13"/>
+    <sheet name="MultC" sheetId="13" r:id="rId14"/>
+    <sheet name="Quant" sheetId="15" r:id="rId15"/>
+    <sheet name="Matching" sheetId="16" r:id="rId16"/>
+    <sheet name="True_False" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="119">
   <si>
     <t>Correct</t>
   </si>
@@ -371,9 +372,6 @@
     <t>The energy released by a wire heating up under a current load</t>
   </si>
   <si>
-    <t>This is not E_gen: latent heat energy is considered thermal energy, and so much be accounted for in a thermal/ mechanical calculation.</t>
-  </si>
-  <si>
     <t>Yes, nuclear energy can be redefined as E_gen.</t>
   </si>
   <si>
@@ -381,6 +379,36 @@
   </si>
   <si>
     <t>Yes, chemical energy can be redefined as E_gen.</t>
+  </si>
+  <si>
+    <t>This is not E_gen: latent heat energy is considered thermal energy, and so must be accounted for in a thermal/ mechanical calculation.</t>
+  </si>
+  <si>
+    <t>Which of the following would mean that we *could not* make the simplification 'E_dot = mC dT/dt'?</t>
+  </si>
+  <si>
+    <t>There was phase change in the system</t>
+  </si>
+  <si>
+    <t>Mass crossed the boundary of the control volume</t>
+  </si>
+  <si>
+    <t>The control volume accelerated in space, but did not change shape or mass</t>
+  </si>
+  <si>
+    <t>The temperature in the control volume changed in a nonlinear fashion</t>
+  </si>
+  <si>
+    <t>In this case, the thermal energy of the system would not be fully explained by the change in temperature.</t>
+  </si>
+  <si>
+    <t>In this case, the energy of the system would change in a way not fully explained by the temperature of the system.</t>
+  </si>
+  <si>
+    <t>In this case, the system would gain (or lose) kinetic energy: so this change could not be calculated using just temperature.</t>
+  </si>
+  <si>
+    <t>The simplification is a instantaneous equation (note the derivative), so it can handle nonlinear changes.</t>
   </si>
 </sst>
 </file>
@@ -948,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C0DA99-12E2-47AF-BE37-6FE22B086204}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,7 +1007,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -990,7 +1018,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1001,7 +1029,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -1012,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1026,6 +1054,87 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C7F739-E953-409B-9A0C-2ACAB5E03ED9}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F6744C-AB84-46A6-B154-ADCDC73F4916}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1101,7 +1210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D491D28F-2C72-4ED9-9BDC-B9083B436FCE}">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -1177,7 +1286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC349AE2-79BD-41D4-A5ED-62C59D9BD8CA}">
   <dimension ref="A1:D7"/>
   <sheetViews>
@@ -1279,7 +1388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFD4C29-31D0-4FC0-9BDE-CC6D58CE522F}">
   <dimension ref="A1:C5"/>
   <sheetViews>

--- a/0_Fundamentals/Embedded_Qs_and_Data/0_Embedded_Qs.xlsx
+++ b/0_Fundamentals/Embedded_Qs_and_Data/0_Embedded_Qs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\Notebooks\0_Fundamentals\Embedded_Qs_and_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60E94E1-4100-4F66-A2E0-2522A3288604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2247A01-667E-4059-B9AA-8E809339D3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9975" yWindow="2370" windowWidth="15945" windowHeight="13215" firstSheet="4" activeTab="12" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
   </bookViews>
@@ -1058,7 +1058,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
